--- a/flywest講師用_資料/スケジュール(講師用).xlsx
+++ b/flywest講師用_資料/スケジュール(講師用).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\02_flywest\02_プログラミングスクール\Lesson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\flywest講師用_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26AC4F4-2B8A-4F07-A6DC-3EB5D1B7BC0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6547B7D-26FC-4108-8F47-3208822BCE12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="1524" windowWidth="23484" windowHeight="22896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13416" yWindow="2244" windowWidth="23484" windowHeight="22896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="372">
   <si>
     <t>【問題】</t>
   </si>
@@ -1936,25 +1936,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・【掲示板作成問題】の問題を実施し、作成したソースとページURLをSlackで俺に送信</t>
-    <rPh sb="11" eb="13">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>オレ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・  02_Wordpress Lesson.xlsx Lesson1~Lesson8を実施</t>
     <rPh sb="44" eb="46">
       <t>ジッシ</t>
@@ -1968,6 +1949,44 @@
   <si>
     <t>https://plusers.net/wordpress_theme_1</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQL連携</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・【掲示板作成問題】の問題を実施し、作成したソースとページURLをSlackで俺に送信</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ SQL連携シートを完成させること</t>
+    <rPh sb="5" eb="7">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>期限：7/12</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>期限：7/4</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・phpmyadmin(環境構築手順書に載ってる)にログインし、テーブルを作成し、SELECT,INSERT,UPDATE文を実行する事。</t>
+  </si>
+  <si>
+    <t>　実行が終わったタイミングで報告よろ！</t>
   </si>
 </sst>
 </file>
@@ -2114,7 +2133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2184,6 +2203,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2346,7 +2377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2371,15 +2402,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2388,15 +2410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2434,8 +2447,30 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4129,25 +4164,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2517800C-2D5F-48F6-9FB4-9B6A13A5BF1B}">
-  <dimension ref="A4:C43"/>
+  <dimension ref="A4:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="39"/>
+    <col min="1" max="1" width="8.796875" style="33"/>
     <col min="2" max="2" width="5.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="122.09765625" style="8" customWidth="1"/>
     <col min="4" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="33" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="44" t="s">
         <v>195</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -4155,20 +4190,20 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="19"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="19"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="9" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4176,7 +4211,7 @@
       <c r="B9" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4184,7 +4219,7 @@
       <c r="B10" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4192,7 +4227,7 @@
       <c r="B11" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4200,7 +4235,7 @@
       <c r="B12" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4208,7 +4243,7 @@
       <c r="B13" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4224,7 +4259,7 @@
       <c r="B15" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4232,7 +4267,7 @@
       <c r="B16" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4240,7 +4275,7 @@
       <c r="B17" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4248,15 +4283,15 @@
       <c r="B18" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>336</v>
+      <c r="C18" s="18" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4297,15 +4332,15 @@
       <c r="C25" s="9"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="33" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="35"/>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" s="13" t="s">
@@ -4322,50 +4357,100 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="39" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="33" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:4">
+      <c r="B36" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="40" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="45" t="s">
+      <c r="C37" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="45"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="8" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="39" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="8" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="39" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="8" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="39" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="8" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="43"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="42" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="8" t="s">
-        <v>362</v>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4377,12 +4462,12 @@
     <hyperlink ref="C8" location="'PHP Lesson進め方'!A1" display="PHP Lesson進め方" xr:uid="{8B10C37A-96F6-4B8E-AF8D-B9BD1BA7123D}"/>
     <hyperlink ref="C9:C11" location="'PHP Lesson進め方'!A1" display="PHP Lesson進め方" xr:uid="{4D3F0179-803F-4468-B92A-EB2A576EE547}"/>
     <hyperlink ref="C13" location="BMI作成問題!A1" display="BMI作成問題　を実施" xr:uid="{34F1D12A-EDBD-4064-A4A5-6D3C14DAA012}"/>
-    <hyperlink ref="C18" location="掲示板作成問題!A1" display="掲示板作成問題　を実施" xr:uid="{71D7BDC5-3E3B-4C42-8555-4D30948B6684}"/>
     <hyperlink ref="C30" location="PHP問題集応用!A1" display="PHP問題集応用" xr:uid="{6F475F98-7996-4AC2-9B7A-E039E1FCE7C7}"/>
     <hyperlink ref="C12" location="'PHP Lesson進め方'!A1" display="PHP Lesson進め方" xr:uid="{E2D562D8-7ADD-433D-9877-CF460EFCE475}"/>
     <hyperlink ref="C14" location="お問い合わせフォーム!A1" display="お問い合わせフォーム　を実施" xr:uid="{7B1DD6F0-464B-4EC9-BE81-D1D3F94E828E}"/>
     <hyperlink ref="C19" location="掲示板作成問題!A1" display="掲示板作成問題　を実施" xr:uid="{50C6A53C-8753-469E-BE5C-696FD415546D}"/>
     <hyperlink ref="C37" r:id="rId1" xr:uid="{B0954AA1-C89F-4495-A524-6A9ABD2E6F4C}"/>
+    <hyperlink ref="C18" location="SQL連携!A1" display="SQL連携" xr:uid="{34E1F46E-5866-4FC5-AF08-7DBA5EFA03B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -5498,7 +5583,7 @@
       <c r="P70" s="15"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="19" t="s">
         <v>229</v>
       </c>
       <c r="C71" s="15"/>
@@ -5850,22 +5935,22 @@
       </c>
     </row>
     <row r="95" spans="1:16">
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="19" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:16">
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="22"/>
+      <c r="B98" s="19"/>
     </row>
     <row r="100" spans="2:5">
       <c r="E100" s="8" t="s">
@@ -7546,88 +7631,88 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="F42" s="24"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="2:6" ht="18.600000000000001" thickBot="1">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="F43" s="24"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="12" t="s">
@@ -7655,518 +7740,518 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="B59" s="24"/>
+      <c r="B59" s="21"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="28" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="B61" s="24"/>
+      <c r="B61" s="21"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="29" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="29" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="28" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="24"/>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="28" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="28" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="28" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="24"/>
+      <c r="B73" s="21"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="28" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="24"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="36"/>
+      <c r="B76" s="30"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="29" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="24"/>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="29" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="28" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="28" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="28" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="28" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="28" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="24"/>
+      <c r="B94" s="21"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="28" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="24"/>
+      <c r="B98" s="21"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="34"/>
+      <c r="B99" s="28"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="24"/>
+      <c r="B100" s="21"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="28" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="24"/>
+      <c r="B102" s="21"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="29" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="28" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="28" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="28" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="28" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="24"/>
+      <c r="B110" s="21"/>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="28" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="29" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="24"/>
+      <c r="B114" s="21"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="24"/>
+      <c r="B116" s="21"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="28" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="24"/>
+      <c r="B118" s="21"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="29" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="29" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="28" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="24"/>
+      <c r="B124" s="21"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="28" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="28" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="28" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="24"/>
+      <c r="B130" s="21"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="28" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="24"/>
+      <c r="B132" s="21"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="28" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="24"/>
+      <c r="B135" s="21"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="28" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="24"/>
+      <c r="B137" s="21"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="28" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="24"/>
+      <c r="B139" s="21"/>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="28" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="24"/>
+      <c r="B141" s="21"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="29" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="24"/>
+      <c r="B143" s="21"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="24"/>
+      <c r="B145" s="21"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="29" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="24"/>
+      <c r="B147" s="21"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="28" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="24"/>
+      <c r="B149" s="21"/>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="35" t="s">
+      <c r="B150" s="29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="24"/>
+      <c r="B151" s="21"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="28" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="24"/>
+      <c r="B153" s="21"/>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="28" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="24"/>
+      <c r="B155" s="21"/>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="34" t="s">
+      <c r="B156" s="28" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="24"/>
+      <c r="B157" s="21"/>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="24"/>
+      <c r="B159" s="21"/>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="28" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="24"/>
+      <c r="B161" s="21"/>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="28" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="24"/>
+      <c r="B163" s="21"/>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="35" t="s">
+      <c r="B164" s="29" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="28" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="34" t="s">
+      <c r="B166" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="24"/>
+      <c r="B167" s="21"/>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="34" t="s">
+      <c r="B168" s="28" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="35" t="s">
+      <c r="B169" s="29" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="34" t="s">
+      <c r="B170" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="34" t="s">
+      <c r="B171" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="24"/>
+      <c r="B172" s="21"/>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="36"/>
+      <c r="B173" s="30"/>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="34" t="s">
+      <c r="B174" s="28" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="34" t="s">
+      <c r="B175" s="28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8210,52 +8295,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="44"/>
-    <col min="2" max="16384" width="8.796875" style="43"/>
+    <col min="1" max="1" width="8.796875" style="38"/>
+    <col min="2" max="16384" width="8.796875" style="37"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="38" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="37" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="37" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="38" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="37" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8322,336 +8407,336 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B117" s="37" t="s">
+      <c r="B117" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B118" s="37" t="s">
+      <c r="B118" s="31" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B119" s="37" t="s">
+      <c r="B119" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B120" s="38"/>
+      <c r="B120" s="32"/>
     </row>
     <row r="121" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="31" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B122" s="38"/>
+      <c r="B122" s="32"/>
     </row>
     <row r="123" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="31" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="31" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="31" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B126" s="37" t="s">
+      <c r="B126" s="31" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="31" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="31" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B129" s="38"/>
+      <c r="B129" s="32"/>
     </row>
     <row r="130" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B131" s="38"/>
+      <c r="B131" s="32"/>
     </row>
     <row r="132" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B132" s="37" t="s">
+      <c r="B132" s="31" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="31" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="134" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="135" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B135" s="38"/>
+      <c r="B135" s="32"/>
     </row>
     <row r="136" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="31" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B137" s="38"/>
+      <c r="B137" s="32"/>
     </row>
     <row r="138" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B138" s="37" t="s">
+      <c r="B138" s="31" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="139" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B139" s="37" t="s">
+      <c r="B139" s="31" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="140" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B140" s="38"/>
+      <c r="B140" s="32"/>
     </row>
     <row r="141" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B141" s="37" t="s">
+      <c r="B141" s="31" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="142" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B142" s="38"/>
+      <c r="B142" s="32"/>
     </row>
     <row r="143" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B143" s="37" t="s">
+      <c r="B143" s="31" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="144" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B144" s="37" t="s">
+      <c r="B144" s="31" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B145" s="37" t="s">
+      <c r="B145" s="31" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B146" s="37" t="s">
+      <c r="B146" s="31" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B147" s="37" t="s">
+      <c r="B147" s="31" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B148" s="37" t="s">
+      <c r="B148" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B149" s="38"/>
+      <c r="B149" s="32"/>
     </row>
     <row r="150" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B150" s="37" t="s">
+      <c r="B150" s="31" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B151" s="37" t="s">
+      <c r="B151" s="31" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B152" s="37" t="s">
+      <c r="B152" s="31" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="154" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="31" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="155" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B155" s="38"/>
+      <c r="B155" s="32"/>
     </row>
     <row r="156" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B156" s="37" t="s">
+      <c r="B156" s="31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B157" s="37" t="s">
+      <c r="B157" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B158" s="38"/>
+      <c r="B158" s="32"/>
     </row>
     <row r="159" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B159" s="37" t="s">
+      <c r="B159" s="31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B160" s="37" t="s">
+      <c r="B160" s="31" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B161" s="37" t="s">
+      <c r="B161" s="31" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B162" s="37" t="s">
+      <c r="B162" s="31" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B163" s="38"/>
+      <c r="B163" s="32"/>
     </row>
     <row r="164" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B165" s="37" t="s">
+      <c r="B165" s="31" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B166" s="37" t="s">
+      <c r="B166" s="31" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B167" s="37" t="s">
+      <c r="B167" s="31" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B168" s="38"/>
+      <c r="B168" s="32"/>
     </row>
     <row r="169" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B169" s="37" t="s">
+      <c r="B169" s="31" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B170" s="38"/>
+      <c r="B170" s="32"/>
     </row>
     <row r="171" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B171" s="37" t="s">
+      <c r="B171" s="31" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B172" s="38"/>
+      <c r="B172" s="32"/>
     </row>
     <row r="173" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B173" s="37" t="s">
+      <c r="B173" s="31" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="174" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B174" s="37" t="s">
+      <c r="B174" s="31" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B175" s="37" t="s">
+      <c r="B175" s="31" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B176" s="37" t="s">
+      <c r="B176" s="31" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B177" s="37" t="s">
+      <c r="B177" s="31" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B178" s="38"/>
+      <c r="B178" s="32"/>
     </row>
     <row r="179" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B179" s="37" t="s">
+      <c r="B179" s="31" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B180" s="37" t="s">
+      <c r="B180" s="31" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B181" s="37" t="s">
+      <c r="B181" s="31" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B182" s="37" t="s">
+      <c r="B182" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B183" s="37" t="s">
+      <c r="B183" s="31" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B184" s="38"/>
+      <c r="B184" s="32"/>
     </row>
     <row r="185" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B185" s="37" t="s">
+      <c r="B185" s="31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B186" s="37" t="s">
+      <c r="B186" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B187" s="38"/>
+      <c r="B187" s="32"/>
     </row>
     <row r="188" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B189" s="37" t="s">
+      <c r="B189" s="31" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="18.600000000000001" thickBot="1">
-      <c r="B190" s="37" t="s">
+      <c r="B190" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8690,5 +8775,6 @@
     <hyperlink ref="B7" r:id="rId1" xr:uid="{E6B03A7B-FB63-47EE-911C-6BF7A139F28D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>